--- a/data/trans_dic/P35-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P35-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,31</t>
+          <t>2,81; 6,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,7</t>
+          <t>3,49; 7,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 13,14</t>
+          <t>7,01; 12,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,11; 23,06</t>
+          <t>10,23; 24,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,84</t>
+          <t>3,7; 8,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,69; 17,31</t>
+          <t>10,53; 17,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,67; 14,69</t>
+          <t>8,78; 15,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,53; 36,58</t>
+          <t>22,47; 36,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,59</t>
+          <t>3,84; 6,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 11,54</t>
+          <t>7,67; 11,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,7; 12,89</t>
+          <t>8,67; 13,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,29; 26,93</t>
+          <t>18,44; 27,45</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,58</t>
+          <t>2,71; 5,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,5; 15,96</t>
+          <t>10,45; 16,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,29; 15,78</t>
+          <t>10,33; 15,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,56; 31,58</t>
+          <t>20,78; 31,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,86; 13,02</t>
+          <t>7,87; 12,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,33; 24,64</t>
+          <t>17,52; 24,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,88; 28,06</t>
+          <t>20,91; 27,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,2; 29,84</t>
+          <t>20,47; 29,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 8,24</t>
+          <t>5,6; 8,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,8; 19,06</t>
+          <t>14,62; 19,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,37; 20,9</t>
+          <t>16,44; 21,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,32; 29,14</t>
+          <t>22,15; 29,06</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 12,22</t>
+          <t>7,37; 12,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 20,54</t>
+          <t>14,62; 20,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,7; 23,08</t>
+          <t>17,01; 23,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,84; 30,85</t>
+          <t>22,84; 31,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,35; 15,7</t>
+          <t>10,27; 15,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,95; 30,9</t>
+          <t>24,07; 30,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,22; 30,99</t>
+          <t>24,03; 30,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,38; 36,23</t>
+          <t>29,78; 36,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,49; 12,99</t>
+          <t>9,33; 12,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,19; 24,88</t>
+          <t>20,14; 24,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,29; 25,99</t>
+          <t>21,51; 26,08</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,66; 32,68</t>
+          <t>27,49; 32,77</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,23; 17,8</t>
+          <t>11,15; 18,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,26; 28,87</t>
+          <t>21,01; 28,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,54; 35,0</t>
+          <t>27,61; 35,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,52; 37,08</t>
+          <t>25,64; 37,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 23,28</t>
+          <t>16,1; 23,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,74; 38,92</t>
+          <t>30,9; 39,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,52; 38,95</t>
+          <t>31,53; 38,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,94; 41,29</t>
+          <t>34,44; 41,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 19,3</t>
+          <t>14,68; 19,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,11; 32,66</t>
+          <t>27,02; 32,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,53; 35,98</t>
+          <t>30,56; 35,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,32; 37,98</t>
+          <t>31,34; 38,5</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,56; 41,55</t>
+          <t>31,79; 41,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,66; 51,81</t>
+          <t>41,24; 51,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,31; 45,05</t>
+          <t>35,33; 45,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40,95; 48,95</t>
+          <t>40,77; 49,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,22; 37,91</t>
+          <t>27,86; 37,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,24; 57,07</t>
+          <t>46,42; 56,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,8; 52,22</t>
+          <t>43,29; 52,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>41,83; 48,67</t>
+          <t>42,27; 48,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,71; 37,95</t>
+          <t>31,41; 38,15</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,67; 52,69</t>
+          <t>45,53; 52,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,6; 47,3</t>
+          <t>40,46; 47,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>42,52; 47,69</t>
+          <t>42,52; 47,74</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,4; 53,32</t>
+          <t>44,25; 53,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,94; 58,66</t>
+          <t>49,64; 58,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,34; 55,02</t>
+          <t>47,0; 55,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>47,37; 54,01</t>
+          <t>47,74; 54,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>42,97; 51,26</t>
+          <t>42,93; 51,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,96; 57,33</t>
+          <t>50,37; 57,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>48,45; 56,59</t>
+          <t>48,25; 56,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,35; 49,99</t>
+          <t>29,66; 49,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,92; 50,73</t>
+          <t>44,78; 50,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,77; 56,63</t>
+          <t>51,06; 56,94</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,81; 54,22</t>
+          <t>48,87; 54,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>35,5; 50,37</t>
+          <t>36,59; 50,35</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,28; 18,79</t>
+          <t>16,26; 18,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,29; 27,43</t>
+          <t>24,36; 27,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,35; 29,55</t>
+          <t>26,44; 29,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>32,8; 37,09</t>
+          <t>32,91; 37,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,18; 23,21</t>
+          <t>20,27; 23,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,25</t>
+          <t>32,79; 36,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,29; 36,43</t>
+          <t>33,06; 36,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,59; 39,22</t>
+          <t>32,75; 39,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,61; 20,5</t>
+          <t>18,62; 20,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,17; 31,43</t>
+          <t>29,06; 31,55</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,37; 32,66</t>
+          <t>30,28; 32,66</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>34,08; 37,66</t>
+          <t>34,3; 37,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P35-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P35-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,73</t>
+          <t>3,12; 7,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,99</t>
+          <t>3,59; 8,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,01; 12,95</t>
+          <t>6,71; 13,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,06</t>
+          <t>3,53; 7,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,53; 17,09</t>
+          <t>10,82; 17,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,78; 15,22</t>
+          <t>8,62; 14,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,74</t>
+          <t>3,77; 6,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,67; 11,62</t>
+          <t>7,62; 11,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,67; 13,08</t>
+          <t>8,64; 13,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,46</t>
+          <t>2,74; 5,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,45; 16,02</t>
+          <t>10,69; 16,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,33; 15,94</t>
+          <t>10,25; 16,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,87; 12,85</t>
+          <t>7,72; 12,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,52; 24,3</t>
+          <t>17,28; 24,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,91; 27,88</t>
+          <t>20,82; 27,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 8,38</t>
+          <t>5,46; 8,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,62; 19,09</t>
+          <t>14,46; 19,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,44; 21,08</t>
+          <t>16,28; 20,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 12,14</t>
+          <t>7,38; 12,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,62; 20,48</t>
+          <t>14,09; 20,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,01; 23,44</t>
+          <t>16,9; 23,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,27; 15,61</t>
+          <t>10,42; 15,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,07; 30,9</t>
+          <t>23,83; 31,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,03; 30,65</t>
+          <t>23,88; 31,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,33; 12,99</t>
+          <t>9,33; 13,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,14; 24,63</t>
+          <t>20,43; 24,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,51; 26,08</t>
+          <t>21,3; 26,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,15; 18,13</t>
+          <t>11,58; 17,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,01; 28,52</t>
+          <t>21,1; 28,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,61; 35,13</t>
+          <t>27,41; 34,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,1; 23,13</t>
+          <t>16,33; 23,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,9; 39,25</t>
+          <t>30,97; 39,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,53; 38,97</t>
+          <t>31,69; 39,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 19,08</t>
+          <t>14,59; 19,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,02; 32,79</t>
+          <t>26,75; 32,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,56; 35,79</t>
+          <t>30,54; 35,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,79; 41,17</t>
+          <t>31,48; 41,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,24; 51,56</t>
+          <t>41,5; 51,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,33; 45,12</t>
+          <t>35,62; 45,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,86; 37,89</t>
+          <t>27,66; 37,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,42; 56,13</t>
+          <t>46,41; 56,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,29; 52,59</t>
+          <t>42,73; 52,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,41; 38,15</t>
+          <t>30,71; 37,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,53; 52,75</t>
+          <t>45,86; 52,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,46; 47,18</t>
+          <t>40,43; 47,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,25; 53,16</t>
+          <t>44,24; 52,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,64; 58,9</t>
+          <t>49,65; 58,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,0; 55,12</t>
+          <t>46,41; 54,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>42,93; 51,03</t>
+          <t>42,89; 50,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,37; 57,64</t>
+          <t>50,19; 57,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>48,25; 56,14</t>
+          <t>48,09; 56,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,78; 50,54</t>
+          <t>44,59; 50,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>51,06; 56,94</t>
+          <t>51,4; 57,18</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,87; 54,49</t>
+          <t>48,64; 54,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,26; 18,98</t>
+          <t>16,15; 18,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,36; 27,58</t>
+          <t>24,45; 27,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,44; 29,65</t>
+          <t>26,47; 29,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,27; 23,04</t>
+          <t>20,08; 23,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,79; 36,14</t>
+          <t>32,73; 36,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,06; 36,49</t>
+          <t>33,08; 36,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,62; 20,52</t>
+          <t>18,52; 20,57</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,06; 31,55</t>
+          <t>29,09; 31,49</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,28; 32,66</t>
+          <t>30,3; 32,64</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P35-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P35-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 7,0</t>
+          <t>3,09; 7,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,05</t>
+          <t>3,55; 7,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,71; 13,17</t>
+          <t>7,03; 13,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 24,42</t>
+          <t>11,11; 23,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,74</t>
+          <t>3,61; 7,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,82; 17,64</t>
+          <t>10,69; 17,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,62; 14,67</t>
+          <t>8,67; 14,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,47; 36,67</t>
+          <t>22,53; 36,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 6,88</t>
+          <t>3,76; 6,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,62; 11,69</t>
+          <t>7,69; 11,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,08</t>
+          <t>8,7; 12,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,44; 27,45</t>
+          <t>18,29; 26,93</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,65</t>
+          <t>2,72; 5,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,69; 16,06</t>
+          <t>10,5; 15,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,25; 16,12</t>
+          <t>10,29; 15,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,78; 31,43</t>
+          <t>20,56; 31,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 12,96</t>
+          <t>7,86; 13,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 24,29</t>
+          <t>17,33; 24,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,82; 27,94</t>
+          <t>20,88; 28,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,47; 29,47</t>
+          <t>21,2; 29,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,27</t>
+          <t>5,56; 8,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,46; 19,14</t>
+          <t>14,8; 19,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,28; 20,87</t>
+          <t>16,37; 20,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,15; 29,06</t>
+          <t>22,32; 29,14</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 12,19</t>
+          <t>7,24; 12,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,09; 20,58</t>
+          <t>14,27; 20,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,9; 23,17</t>
+          <t>16,7; 23,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,84; 31,14</t>
+          <t>22,84; 30,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,42; 15,63</t>
+          <t>10,35; 15,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,83; 31,01</t>
+          <t>23,95; 30,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,88; 31,16</t>
+          <t>24,22; 30,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,78; 36,55</t>
+          <t>29,38; 36,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,33; 13,09</t>
+          <t>9,49; 12,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,43; 24,96</t>
+          <t>20,19; 24,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,3; 26,0</t>
+          <t>21,29; 25,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,49; 32,77</t>
+          <t>27,66; 32,68</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,58; 17,91</t>
+          <t>11,23; 17,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,1; 28,81</t>
+          <t>21,26; 28,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,41; 34,91</t>
+          <t>27,54; 35,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,64; 37,15</t>
+          <t>24,52; 37,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,33; 23,44</t>
+          <t>16,11; 23,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,97; 39,53</t>
+          <t>30,74; 38,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,69; 39,14</t>
+          <t>31,52; 38,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,44; 41,1</t>
+          <t>34,94; 41,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 19,37</t>
+          <t>14,54; 19,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,75; 32,5</t>
+          <t>27,11; 32,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,54; 35,77</t>
+          <t>30,53; 35,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,34; 38,5</t>
+          <t>31,32; 37,98</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,48; 41,59</t>
+          <t>31,56; 41,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,5; 51,84</t>
+          <t>41,66; 51,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,62; 45,14</t>
+          <t>35,31; 45,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40,77; 49,08</t>
+          <t>40,95; 48,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,66; 37,41</t>
+          <t>28,22; 37,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,41; 56,53</t>
+          <t>46,24; 57,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,73; 52,32</t>
+          <t>42,8; 52,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>42,27; 48,79</t>
+          <t>41,83; 48,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,71; 37,77</t>
+          <t>30,71; 37,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,86; 52,72</t>
+          <t>45,67; 52,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,43; 47,08</t>
+          <t>40,6; 47,3</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>42,52; 47,74</t>
+          <t>42,52; 47,69</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,24; 52,95</t>
+          <t>44,4; 53,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,65; 58,58</t>
+          <t>49,94; 58,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,41; 54,68</t>
+          <t>47,34; 55,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>47,74; 54,11</t>
+          <t>47,37; 54,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>42,89; 50,87</t>
+          <t>42,97; 51,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,19; 57,92</t>
+          <t>49,96; 57,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>48,09; 56,28</t>
+          <t>48,45; 56,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,66; 49,87</t>
+          <t>31,35; 49,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,59; 50,49</t>
+          <t>44,92; 50,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>51,4; 57,18</t>
+          <t>50,77; 56,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,64; 54,27</t>
+          <t>48,81; 54,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>36,59; 50,35</t>
+          <t>35,5; 50,37</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,15; 18,8</t>
+          <t>16,28; 18,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,45; 27,51</t>
+          <t>24,29; 27,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,47; 29,48</t>
+          <t>26,35; 29,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>32,91; 37,01</t>
+          <t>32,8; 37,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,08; 23,01</t>
+          <t>20,18; 23,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,73; 36,23</t>
+          <t>32,8; 36,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,08; 36,5</t>
+          <t>33,29; 36,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,75; 39,06</t>
+          <t>33,59; 39,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,52; 20,57</t>
+          <t>18,61; 20,5</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,09; 31,49</t>
+          <t>29,17; 31,43</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,3; 32,64</t>
+          <t>30,37; 32,66</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>34,3; 37,67</t>
+          <t>34,08; 37,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P35-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P35-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>20,27%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,11; 23,06</t>
+          <t>9,85; 21,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,53; 36,58</t>
+          <t>20,85; 34,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,29; 26,93</t>
+          <t>16,3; 24,89</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>22,69%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,56; 31,58</t>
+          <t>19,49; 30,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,2; 29,84</t>
+          <t>14,05; 26,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,32; 29,14</t>
+          <t>17,89; 26,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,88%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>28,86%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,84; 30,85</t>
+          <t>21,68; 29,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,38; 36,23</t>
+          <t>28,61; 35,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,66; 32,68</t>
+          <t>26,5; 31,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>29,53%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,52; 37,08</t>
+          <t>10,1; 35,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,94; 41,29</t>
+          <t>30,23; 39,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,32; 37,98</t>
+          <t>17,45; 35,69</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>44,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>45,29%</t>
+          <t>44,33%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>44,16%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40,95; 48,95</t>
+          <t>39,92; 47,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>41,83; 48,67</t>
+          <t>40,97; 47,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>42,52; 47,69</t>
+          <t>41,6; 46,7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>48,55%</t>
+          <t>45,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>52,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>51,09%</t>
+          <t>54,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>50,95%</t>
+          <t>49,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>47,03%</t>
+          <t>46,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>56,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>52,24%</t>
+          <t>58,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>45,99%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>54,05%</t>
+          <t>55,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>51,75%</t>
+          <t>56,36%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>46,65%</t>
+          <t>38,15%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,4; 53,32</t>
+          <t>39,16; 51,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,94; 58,66</t>
+          <t>46,57; 58,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,34; 55,02</t>
+          <t>48,85; 59,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>47,37; 54,01</t>
+          <t>44,54; 53,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>42,97; 51,26</t>
+          <t>41,48; 52,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,96; 57,33</t>
+          <t>51,62; 62,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>48,45; 56,59</t>
+          <t>52,6; 63,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,35; 49,99</t>
+          <t>11,94; 48,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,92; 50,73</t>
+          <t>42,14; 49,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,77; 56,63</t>
+          <t>51,09; 58,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,81; 54,22</t>
+          <t>52,63; 60,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>35,5; 50,37</t>
+          <t>19,41; 49,19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>53,42%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>56,17%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>46,9%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>51,52%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>47,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>51,06%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>46,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>49,03%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>49,65%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>53,05%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>46,81%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>50,02%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>46,49; 60,1</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>48,27; 62,5</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>40,5; 52,48</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>46,88; 56,22</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>41,47; 53,86</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>46,06; 56,52</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>41,11; 52,52</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45,74; 52,05</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>45,01; 53,94</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>48,93; 57,41</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>42,52; 50,98</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>46,82; 52,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25,97%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>31,55%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21,56%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>34,4%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>34,84%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>34,56%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19,56%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>30,26%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>31,44%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>33,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>16,28; 18,79</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>24,29; 27,43</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>26,35; 29,55</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>32,8; 37,09</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>24,24; 34,61</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>20,18; 23,21</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>32,8; 36,25</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>33,29; 36,43</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>33,59; 39,22</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>28,36; 37,57</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>18,61; 20,5</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>29,17; 31,43</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>30,37; 32,66</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>34,08; 37,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>27,88; 35,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P35-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P35-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,31</t>
+          <t>3,0; 7,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,7</t>
+          <t>3,5; 8,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 13,14</t>
+          <t>7,28; 12,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,85; 21,72</t>
+          <t>9,48; 21,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,84</t>
+          <t>3,57; 8,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,69; 17,31</t>
+          <t>10,71; 17,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,67; 14,69</t>
+          <t>8,6; 14,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,85; 34,61</t>
+          <t>21,24; 34,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,59</t>
+          <t>3,76; 6,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 11,54</t>
+          <t>7,52; 11,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,7; 12,89</t>
+          <t>8,7; 13,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,3; 24,89</t>
+          <t>16,24; 24,92</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,58</t>
+          <t>2,63; 5,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,5; 15,96</t>
+          <t>10,69; 16,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,29; 15,78</t>
+          <t>10,16; 15,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,49; 30,25</t>
+          <t>19,16; 29,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,86; 13,02</t>
+          <t>7,77; 12,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,33; 24,64</t>
+          <t>17,48; 24,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,88; 28,06</t>
+          <t>20,93; 27,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,05; 26,45</t>
+          <t>13,01; 26,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 8,24</t>
+          <t>5,49; 8,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,8; 19,06</t>
+          <t>14,85; 19,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,37; 20,9</t>
+          <t>16,26; 20,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,89; 26,41</t>
+          <t>17,6; 26,37</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 12,22</t>
+          <t>7,11; 11,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 20,54</t>
+          <t>14,36; 20,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,7; 23,08</t>
+          <t>16,53; 23,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,68; 29,34</t>
+          <t>21,82; 29,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,35; 15,7</t>
+          <t>10,32; 15,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,95; 30,9</t>
+          <t>23,77; 31,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,22; 30,99</t>
+          <t>23,95; 31,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,61; 35,26</t>
+          <t>28,67; 35,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,49; 12,99</t>
+          <t>9,41; 13,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,19; 24,88</t>
+          <t>19,93; 24,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,29; 25,99</t>
+          <t>21,1; 25,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,5; 31,38</t>
+          <t>26,51; 31,58</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,23; 17,8</t>
+          <t>11,24; 17,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,26; 28,87</t>
+          <t>21,46; 28,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,54; 35,0</t>
+          <t>27,69; 35,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 35,09</t>
+          <t>10,77; 35,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 23,28</t>
+          <t>15,77; 23,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,74; 38,92</t>
+          <t>30,61; 38,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,52; 38,95</t>
+          <t>31,64; 38,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,23; 39,15</t>
+          <t>30,19; 39,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 19,3</t>
+          <t>14,6; 19,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,11; 32,66</t>
+          <t>27,12; 32,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,53; 35,98</t>
+          <t>30,42; 36,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,45; 35,69</t>
+          <t>17,09; 35,97</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,56; 41,55</t>
+          <t>31,52; 41,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,66; 51,81</t>
+          <t>41,58; 52,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,31; 45,05</t>
+          <t>35,66; 45,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,92; 47,86</t>
+          <t>39,79; 48,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,22; 37,91</t>
+          <t>28,19; 37,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,24; 57,07</t>
+          <t>46,21; 56,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,8; 52,22</t>
+          <t>42,74; 52,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,97; 47,82</t>
+          <t>41,13; 47,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,71; 37,95</t>
+          <t>31,26; 37,97</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,67; 52,69</t>
+          <t>45,47; 52,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,6; 47,3</t>
+          <t>40,74; 47,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>41,6; 46,7</t>
+          <t>41,79; 46,83</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,16; 51,26</t>
+          <t>39,2; 51,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>46,57; 58,36</t>
+          <t>46,94; 59,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>48,85; 59,53</t>
+          <t>48,24; 59,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>44,54; 53,29</t>
+          <t>44,74; 53,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>41,48; 52,2</t>
+          <t>41,49; 52,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>51,62; 62,03</t>
+          <t>51,79; 62,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>52,6; 63,1</t>
+          <t>53,11; 63,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,94; 48,91</t>
+          <t>12,95; 48,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,14; 49,89</t>
+          <t>41,95; 49,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>51,09; 58,92</t>
+          <t>50,43; 58,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>52,63; 60,43</t>
+          <t>52,83; 60,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,41; 49,19</t>
+          <t>21,02; 49,27</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>46,49; 60,1</t>
+          <t>45,63; 59,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>48,27; 62,5</t>
+          <t>48,98; 63,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>40,5; 52,48</t>
+          <t>41,86; 52,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>46,88; 56,22</t>
+          <t>46,81; 56,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>41,47; 53,86</t>
+          <t>40,8; 53,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,06; 56,52</t>
+          <t>46,09; 56,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>41,11; 52,52</t>
+          <t>41,41; 52,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,74; 52,05</t>
+          <t>45,85; 52,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>45,01; 53,94</t>
+          <t>45,14; 54,18</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>48,93; 57,41</t>
+          <t>48,6; 57,42</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>42,52; 50,98</t>
+          <t>42,83; 50,87</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>46,82; 52,61</t>
+          <t>47,12; 52,68</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,28; 18,79</t>
+          <t>16,12; 18,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>24,29; 27,43</t>
+          <t>24,29; 27,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,35; 29,55</t>
+          <t>26,19; 29,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,24; 34,61</t>
+          <t>24,92; 34,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,18; 23,21</t>
+          <t>20,04; 22,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,25</t>
+          <t>32,68; 36,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>33,29; 36,43</t>
+          <t>33,12; 36,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,36; 37,57</t>
+          <t>28,54; 37,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,61; 20,5</t>
+          <t>18,67; 20,59</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>29,17; 31,43</t>
+          <t>29,16; 31,54</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>30,37; 32,66</t>
+          <t>30,3; 32,64</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>27,88; 35,37</t>
+          <t>28,57; 35,27</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que su médico le ha aconsejado hacer algún tipo de ejercicio físico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22126</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23375</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>40115</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>59049</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>24139</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>57539</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>44783</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>85536</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>46265</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>80914</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>84898</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>144585</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14118; 33712</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15379; 35513</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>29710; 52742</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>37938; 87308</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15828; 35695</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>44696; 73143</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33482; 57447</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>66512; 108563</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>34347; 63766</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>64499; 102232</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>69402; 104045</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>115806; 177698</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>27586</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>87664</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>75106</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>103680</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>60127</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>122803</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>134872</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>108441</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>87714</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>210468</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>209978</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>212121</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18430; 39741</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>71256; 107563</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>59200; 91235</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>81159; 126902</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>45721; 75865</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>103473; 144227</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>116843; 155081</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>66543; 133874</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>70805; 106821</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>186965; 239514</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>185541; 234395</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>164566; 246616</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>57628</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>112871</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>130709</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>137714</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>83220</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>189084</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>178800</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>173287</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>140849</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>301954</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>309509</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>311001</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>43562; 73297</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>94004; 131904</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>108856; 152788</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>117026; 158439</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>67296; 101752</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>164604; 215168</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>155920; 202792</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>155182; 191524</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>118968; 164774</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>268491; 334038</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>276362; 339229</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>285609; 340272</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>70132</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>147658</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>200461</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>217352</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>94447</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>207955</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>225533</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>254987</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>164579</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>355612</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>425994</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>472339</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>54878; 85091</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>128599; 172015</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>177476; 227830</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>95596; 314067</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>77182; 112739</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>183210; 232347</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>202353; 248736</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>214904; 278537</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>142752; 189067</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>324808; 391350</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>389480; 462373</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>273326; 575281</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>133544</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>196182</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>190730</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>246941</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>127865</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>221715</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>232968</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>241683</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>261409</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>417896</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>423699</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>488625</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>115782; 150731</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>175489; 220991</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>168642; 215783</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>223340; 271196</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>110785; 146070</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>198760; 243705</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>209576; 256539</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>224264; 258977</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>237659; 288682</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>387476; 449849</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>392403; 455024</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>462373; 518117</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>127667</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>160732</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>177040</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>181257</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>151252</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>195206</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>214507</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>191124</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>278919</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>355938</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>391547</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>372382</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>111086; 144650</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>142601; 180743</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>157286; 194859</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>164732; 197585</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>134025; 168551</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>177848; 214730</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>195781; 233437</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>78699; 294108</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>254375; 301235</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>326352; 381097</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>367026; 418553</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>205141; 480898</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>108637</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>135553</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>117295</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>145668</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>150555</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>193086</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>186448</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>208576</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>259193</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>328639</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>303743</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>354244</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>92787; 121291</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>118192; 154022</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>104683; 131989</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>132356; 159116</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>130014; 169128</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>174303; 213672</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>165167; 209035</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>195053; 223156</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>235633; 282818</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>301087; 355726</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>277926; 330130</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>333730; 373088</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1091</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2074</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3360</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>547321</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>864034</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>931456</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1091663</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>691606</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1187387</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1217911</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1263634</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1238927</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>2051421</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2149368</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2355296</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>504055; 589433</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>808315; 918082</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>874749; 984567</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>862249; 1204823</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>643049; 737446</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1128156; 1243553</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1157730; 1281273</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1043356; 1361965</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1182969; 1304283</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1976645; 2138551</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2070915; 2231270</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2032995; 2509442</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>